--- a/2. IMPLEMENTARE/11. REGISTRE_CHELTUIELI/Cheltuieli Marina Cloudifier-GoDrive.xlsx
+++ b/2. IMPLEMENTARE/11. REGISTRE_CHELTUIELI/Cheltuieli Marina Cloudifier-GoDrive.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="19875" windowHeight="7200"/>
+    <workbookView xWindow="360" yWindow="375" windowWidth="19875" windowHeight="7200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cheltuieli" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="cheltuieli aprilie-iunie" sheetId="2" r:id="rId2"/>
+    <sheet name="iulie-septembrie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
   <si>
     <t>gravura, stampile Cloudifier</t>
   </si>
@@ -25,6 +25,33 @@
   </si>
   <si>
     <t>taxi</t>
+  </si>
+  <si>
+    <t>papetarie</t>
+  </si>
+  <si>
+    <t>papetarie (perforator, marker cd, mape)</t>
+  </si>
+  <si>
+    <t>taxi depunere RP8 Cloudifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi </t>
+  </si>
+  <si>
+    <t>taxi depunere CR4,5 GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print </t>
+  </si>
+  <si>
+    <t xml:space="preserve">papetarie </t>
+  </si>
+  <si>
+    <t>taxi clarificari CR Go</t>
+  </si>
+  <si>
+    <t>xerox cloudifier</t>
   </si>
 </sst>
 </file>
@@ -365,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,24 +510,581 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="D2">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5.05</v>
+      </c>
+      <c r="D4">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5.05</v>
+      </c>
+      <c r="D5">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>11.04</v>
+      </c>
+      <c r="D6">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>11.04</v>
+      </c>
+      <c r="D7">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>11.04</v>
+      </c>
+      <c r="D8">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>6.04</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>7.04</v>
+      </c>
+      <c r="D10">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>7.04</v>
+      </c>
+      <c r="D11">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>23.05</v>
+      </c>
+      <c r="D12">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>26.04</v>
+      </c>
+      <c r="D13">
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>26.04</v>
+      </c>
+      <c r="D14">
+        <v>23.59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>23.05</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D16">
+        <v>48.32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>22.06</v>
+      </c>
+      <c r="D17">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>22.06</v>
+      </c>
+      <c r="D18">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>20.05</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>24.04</v>
+      </c>
+      <c r="D20">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>24.04</v>
+      </c>
+      <c r="D21">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>19.05</v>
+      </c>
+      <c r="D22">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>19.05</v>
+      </c>
+      <c r="D23">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>19.05</v>
+      </c>
+      <c r="D24">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>26.05</v>
+      </c>
+      <c r="D25">
+        <v>54.01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>14.06</v>
+      </c>
+      <c r="D26">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>7.06</v>
+      </c>
+      <c r="D27">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>28.06</v>
+      </c>
+      <c r="D28">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>28.06</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="D30">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>SUM(D2:D30)</f>
+        <v>475.50000000000006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4.07</v>
+      </c>
+      <c r="D2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3.07</v>
+      </c>
+      <c r="D3">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>4.07</v>
+      </c>
+      <c r="D4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4.07</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6.07</v>
+      </c>
+      <c r="D6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6.07</v>
+      </c>
+      <c r="D7">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>6.07</v>
+      </c>
+      <c r="D8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6.07</v>
+      </c>
+      <c r="D9">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>11.07</v>
+      </c>
+      <c r="D10">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>11.07</v>
+      </c>
+      <c r="D11">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>11.07</v>
+      </c>
+      <c r="D12">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>12.07</v>
+      </c>
+      <c r="D13">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>12.07</v>
+      </c>
+      <c r="D14">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>12.07</v>
+      </c>
+      <c r="D15">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>12.07</v>
+      </c>
+      <c r="D16">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>13.07</v>
+      </c>
+      <c r="D17">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>13.07</v>
+      </c>
+      <c r="D18">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>14.07</v>
+      </c>
+      <c r="D19">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>14.07</v>
+      </c>
+      <c r="D20">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>14.07</v>
+      </c>
+      <c r="D21">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>SUM(D2:D23)</f>
+        <v>352.99999999999994</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>